--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AC)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AC).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AC)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AC)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | AC
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AC)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,9 +530,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ac
-Aca
-Acacallis - fam. Orchidacées
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Aca</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Acacallis - fam. Orchidacées
 Acacallis cyanea
 Acacia - fam. Fabacées
 Acacia albida ou Faidherbia albida -  Kad
@@ -552,12 +572,88 @@
 Acanthus balcanicus
 Acanthus mollis - Acanthe à feuilles molles ou « Acanthe à feuilles larges » - photo
 Acanthus montanus
-Acanthus spinosus - Acanthe épineuse - photo
-Acc
-Acca
-Acca sellowiana - photo
-Ace
-Acer - fam. Acéracées (arbre)
+Acanthus spinosus - Acanthe épineuse - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Acc</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acca
+Acca sellowiana - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ace</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acer - fam. Acéracées (arbre)
 Acer acuminatum - photo
 Acer barbinerve - photo
 Acer bornmuelleri - photo
@@ -696,9 +792,47 @@
 Acer velutinum - photo
 Acer zoeschense
 Aceras - fam. Orchidacées
-Aceras anthropophorum - Homme pendu
-Ach
-Achillea - fam. Astéracées (plante vivace)
+Aceras anthropophorum - Homme pendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ach</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Achillea - fam. Astéracées (plante vivace)
 Achillea abrotanoides
 Achillea absinthoides
 Achillea aegyptiaca
@@ -732,16 +866,92 @@
 Achillea sibirica -  Achillée de Sibérie
 Achilea tomentosa -  Achillée tomenteuse - photo
 Achillea umbellata - photo
-Achmea - fam. Broméliacées - (plante épiphyte)
-Aci
-Acinos - fam. Lamiacées
+Achmea - fam. Broméliacées - (plante épiphyte)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Aci</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Acinos - fam. Lamiacées
 Acinos alpinus
 Acinos arvensis - Sarriette des champs
 Acinos corsicus
 Acinos rotundifolius
-Acinos suaveolens
-Aco
-Aconitum - fam. Ranunculaceae
+Acinos suaveolens</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Aco</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aconitum - fam. Ranunculaceae
 Aconitum angustifolium
 Aconitum anthora
 Aconitum burnatii
@@ -765,9 +975,47 @@
 Acorus - fam. Araceae
 Acorus calamus - Acore odorant ou Roseau odorant
 Acorus calamus variegatus
-Acorus gramineus - Acore à feuilles de graminées
-Act
-Actaea - fam. Ranunculaceae - (plante de rocaille)
+Acorus gramineus - Acore à feuilles de graminées</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Act</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actaea - fam. Ranunculaceae - (plante de rocaille)
 Actaea erythrocarpa
 Actaea racemosa - Actée à grappe
 Actaea rubra - Actée rouge ou Actée à fruit rouge
